--- a/hk.tourists.number.xlsx
+++ b/hk.tourists.number.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="375" windowWidth="18915" windowHeight="12045"/>
   </bookViews>
@@ -153,7 +153,12 @@
     <definedName name="ZZ">#REF!</definedName>
     <definedName name="ZZZ">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -256,7 +261,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -264,7 +269,7 @@
     <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="#\ ###\ ##0.00"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +354,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -377,12 +400,12 @@
       <right/>
       <top/>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -405,6 +428,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -451,7 +476,7 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="16">
     <cellStyle name="AlphaNum" xfId="3"/>
     <cellStyle name="Base100" xfId="4"/>
     <cellStyle name="Comma 2" xfId="5"/>
@@ -459,23 +484,39 @@
     <cellStyle name="Normal 2 2" xfId="6"/>
     <cellStyle name="Normal 3" xfId="7"/>
     <cellStyle name="Numeric" xfId="8"/>
-    <cellStyle name="oft Excel]_x000d_&#10;Comment=The open=/f lines load custom functions into the Paste Function list._x000d_&#10;Maximized=3_x000d_&#10;AutoFormat=" xfId="9"/>
+    <cellStyle name="oft Excel]_x000d__x000a_Comment=The open=/f lines load custom functions into the Paste Function list._x000d__x000a_Maximized=3_x000d__x000a_AutoFormat=" xfId="9"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
     <cellStyle name="未定義" xfId="10"/>
     <cellStyle name="一般 2" xfId="11"/>
     <cellStyle name="一般 2 2" xfId="12"/>
     <cellStyle name="一般_t05-12" xfId="13"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:style val="4"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -484,14 +525,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11766678651851271"/>
-          <c:y val="2.8252405949256338E-2"/>
-          <c:w val="0.86635452064201068"/>
-          <c:h val="0.68907808398950166"/>
+          <c:x val="0.11766678651851301"/>
+          <c:y val="2.82524059492563E-2"/>
+          <c:w val="0.86635452064201102"/>
+          <c:h val="0.68907808398950199"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -513,7 +555,7 @@
             <c:numRef>
               <c:f>'T10-11'!$A$25:$A$121</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>39083</c:v>
@@ -1109,18 +1151,31 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="53378048"/>
-        <c:axId val="56476416"/>
+        <c:smooth val="0"/>
+        <c:axId val="97147520"/>
+        <c:axId val="133232512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="53378048"/>
+        <c:axId val="97147520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1132,18 +1187,22 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56476416"/>
+        <c:crossAx val="133232512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="56476416"/>
+        <c:axId val="133232512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1155,7 +1214,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53378048"/>
+        <c:crossAx val="97147520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -1176,6 +1235,8 @@
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -1184,7 +1245,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000095" r="0.70000000000000095" t="0.750000000000001" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1222,6 +1283,47 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>150</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>676275</xdr:colOff>
+          <xdr:row>159</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -1509,14 +1611,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="N105" sqref="N105"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:J102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="10" max="10" width="13.875" customWidth="1"/>
     <col min="14" max="14" width="9.125" bestFit="1" customWidth="1"/>
@@ -5172,20 +5274,33 @@
         <v>4405298</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" ht="14.25">
       <c r="A101" s="21">
         <v>42095</v>
       </c>
-    </row>
-    <row r="102" spans="1:14">
+      <c r="J101" s="13">
+        <v>3604713</v>
+      </c>
+      <c r="M101" s="13">
+        <v>4789112</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="14.25">
       <c r="A102" s="21">
         <v>42125</v>
       </c>
-    </row>
-    <row r="103" spans="1:14">
+      <c r="J102" s="13">
+        <v>3625308</v>
+      </c>
+      <c r="M102" s="13">
+        <v>4756215</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="14.25">
       <c r="A103" s="21">
         <v>42156</v>
       </c>
+      <c r="J103" s="13"/>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="21">
@@ -5220,11 +5335,17 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N153"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -5237,772 +5358,772 @@
     <col min="1" max="1" width="7.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="254" width="8.125" style="1"/>
     <col min="255" max="255" width="6.875" style="1" customWidth="1"/>
-    <col min="256" max="256" width="2.75" style="1" customWidth="1"/>
+    <col min="256" max="256" width="2.625" style="1" customWidth="1"/>
     <col min="257" max="257" width="2.875" style="1" customWidth="1"/>
     <col min="258" max="258" width="15.375" style="1" customWidth="1"/>
     <col min="259" max="259" width="14.125" style="1" customWidth="1"/>
-    <col min="260" max="260" width="17.75" style="1" customWidth="1"/>
+    <col min="260" max="260" width="17.625" style="1" customWidth="1"/>
     <col min="261" max="261" width="14.875" style="1" customWidth="1"/>
-    <col min="262" max="262" width="15.25" style="1" customWidth="1"/>
+    <col min="262" max="262" width="15.125" style="1" customWidth="1"/>
     <col min="263" max="263" width="14.125" style="1" customWidth="1"/>
     <col min="264" max="264" width="8.125" style="1"/>
-    <col min="265" max="265" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="266" max="510" width="8.125" style="1"/>
     <col min="511" max="511" width="6.875" style="1" customWidth="1"/>
-    <col min="512" max="512" width="2.75" style="1" customWidth="1"/>
+    <col min="512" max="512" width="2.625" style="1" customWidth="1"/>
     <col min="513" max="513" width="2.875" style="1" customWidth="1"/>
     <col min="514" max="514" width="15.375" style="1" customWidth="1"/>
     <col min="515" max="515" width="14.125" style="1" customWidth="1"/>
-    <col min="516" max="516" width="17.75" style="1" customWidth="1"/>
+    <col min="516" max="516" width="17.625" style="1" customWidth="1"/>
     <col min="517" max="517" width="14.875" style="1" customWidth="1"/>
-    <col min="518" max="518" width="15.25" style="1" customWidth="1"/>
+    <col min="518" max="518" width="15.125" style="1" customWidth="1"/>
     <col min="519" max="519" width="14.125" style="1" customWidth="1"/>
     <col min="520" max="520" width="8.125" style="1"/>
-    <col min="521" max="521" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="522" max="766" width="8.125" style="1"/>
     <col min="767" max="767" width="6.875" style="1" customWidth="1"/>
-    <col min="768" max="768" width="2.75" style="1" customWidth="1"/>
+    <col min="768" max="768" width="2.625" style="1" customWidth="1"/>
     <col min="769" max="769" width="2.875" style="1" customWidth="1"/>
     <col min="770" max="770" width="15.375" style="1" customWidth="1"/>
     <col min="771" max="771" width="14.125" style="1" customWidth="1"/>
-    <col min="772" max="772" width="17.75" style="1" customWidth="1"/>
+    <col min="772" max="772" width="17.625" style="1" customWidth="1"/>
     <col min="773" max="773" width="14.875" style="1" customWidth="1"/>
-    <col min="774" max="774" width="15.25" style="1" customWidth="1"/>
+    <col min="774" max="774" width="15.125" style="1" customWidth="1"/>
     <col min="775" max="775" width="14.125" style="1" customWidth="1"/>
     <col min="776" max="776" width="8.125" style="1"/>
-    <col min="777" max="777" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="778" max="1022" width="8.125" style="1"/>
     <col min="1023" max="1023" width="6.875" style="1" customWidth="1"/>
-    <col min="1024" max="1024" width="2.75" style="1" customWidth="1"/>
+    <col min="1024" max="1024" width="2.625" style="1" customWidth="1"/>
     <col min="1025" max="1025" width="2.875" style="1" customWidth="1"/>
     <col min="1026" max="1026" width="15.375" style="1" customWidth="1"/>
     <col min="1027" max="1027" width="14.125" style="1" customWidth="1"/>
-    <col min="1028" max="1028" width="17.75" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="17.625" style="1" customWidth="1"/>
     <col min="1029" max="1029" width="14.875" style="1" customWidth="1"/>
-    <col min="1030" max="1030" width="15.25" style="1" customWidth="1"/>
+    <col min="1030" max="1030" width="15.125" style="1" customWidth="1"/>
     <col min="1031" max="1031" width="14.125" style="1" customWidth="1"/>
     <col min="1032" max="1032" width="8.125" style="1"/>
-    <col min="1033" max="1033" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="1034" max="1278" width="8.125" style="1"/>
     <col min="1279" max="1279" width="6.875" style="1" customWidth="1"/>
-    <col min="1280" max="1280" width="2.75" style="1" customWidth="1"/>
+    <col min="1280" max="1280" width="2.625" style="1" customWidth="1"/>
     <col min="1281" max="1281" width="2.875" style="1" customWidth="1"/>
     <col min="1282" max="1282" width="15.375" style="1" customWidth="1"/>
     <col min="1283" max="1283" width="14.125" style="1" customWidth="1"/>
-    <col min="1284" max="1284" width="17.75" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="17.625" style="1" customWidth="1"/>
     <col min="1285" max="1285" width="14.875" style="1" customWidth="1"/>
-    <col min="1286" max="1286" width="15.25" style="1" customWidth="1"/>
+    <col min="1286" max="1286" width="15.125" style="1" customWidth="1"/>
     <col min="1287" max="1287" width="14.125" style="1" customWidth="1"/>
     <col min="1288" max="1288" width="8.125" style="1"/>
-    <col min="1289" max="1289" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="1290" max="1534" width="8.125" style="1"/>
     <col min="1535" max="1535" width="6.875" style="1" customWidth="1"/>
-    <col min="1536" max="1536" width="2.75" style="1" customWidth="1"/>
+    <col min="1536" max="1536" width="2.625" style="1" customWidth="1"/>
     <col min="1537" max="1537" width="2.875" style="1" customWidth="1"/>
     <col min="1538" max="1538" width="15.375" style="1" customWidth="1"/>
     <col min="1539" max="1539" width="14.125" style="1" customWidth="1"/>
-    <col min="1540" max="1540" width="17.75" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="17.625" style="1" customWidth="1"/>
     <col min="1541" max="1541" width="14.875" style="1" customWidth="1"/>
-    <col min="1542" max="1542" width="15.25" style="1" customWidth="1"/>
+    <col min="1542" max="1542" width="15.125" style="1" customWidth="1"/>
     <col min="1543" max="1543" width="14.125" style="1" customWidth="1"/>
     <col min="1544" max="1544" width="8.125" style="1"/>
-    <col min="1545" max="1545" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="1546" max="1790" width="8.125" style="1"/>
     <col min="1791" max="1791" width="6.875" style="1" customWidth="1"/>
-    <col min="1792" max="1792" width="2.75" style="1" customWidth="1"/>
+    <col min="1792" max="1792" width="2.625" style="1" customWidth="1"/>
     <col min="1793" max="1793" width="2.875" style="1" customWidth="1"/>
     <col min="1794" max="1794" width="15.375" style="1" customWidth="1"/>
     <col min="1795" max="1795" width="14.125" style="1" customWidth="1"/>
-    <col min="1796" max="1796" width="17.75" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="17.625" style="1" customWidth="1"/>
     <col min="1797" max="1797" width="14.875" style="1" customWidth="1"/>
-    <col min="1798" max="1798" width="15.25" style="1" customWidth="1"/>
+    <col min="1798" max="1798" width="15.125" style="1" customWidth="1"/>
     <col min="1799" max="1799" width="14.125" style="1" customWidth="1"/>
     <col min="1800" max="1800" width="8.125" style="1"/>
-    <col min="1801" max="1801" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="1802" max="2046" width="8.125" style="1"/>
     <col min="2047" max="2047" width="6.875" style="1" customWidth="1"/>
-    <col min="2048" max="2048" width="2.75" style="1" customWidth="1"/>
+    <col min="2048" max="2048" width="2.625" style="1" customWidth="1"/>
     <col min="2049" max="2049" width="2.875" style="1" customWidth="1"/>
     <col min="2050" max="2050" width="15.375" style="1" customWidth="1"/>
     <col min="2051" max="2051" width="14.125" style="1" customWidth="1"/>
-    <col min="2052" max="2052" width="17.75" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="17.625" style="1" customWidth="1"/>
     <col min="2053" max="2053" width="14.875" style="1" customWidth="1"/>
-    <col min="2054" max="2054" width="15.25" style="1" customWidth="1"/>
+    <col min="2054" max="2054" width="15.125" style="1" customWidth="1"/>
     <col min="2055" max="2055" width="14.125" style="1" customWidth="1"/>
     <col min="2056" max="2056" width="8.125" style="1"/>
-    <col min="2057" max="2057" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2058" max="2302" width="8.125" style="1"/>
     <col min="2303" max="2303" width="6.875" style="1" customWidth="1"/>
-    <col min="2304" max="2304" width="2.75" style="1" customWidth="1"/>
+    <col min="2304" max="2304" width="2.625" style="1" customWidth="1"/>
     <col min="2305" max="2305" width="2.875" style="1" customWidth="1"/>
     <col min="2306" max="2306" width="15.375" style="1" customWidth="1"/>
     <col min="2307" max="2307" width="14.125" style="1" customWidth="1"/>
-    <col min="2308" max="2308" width="17.75" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="17.625" style="1" customWidth="1"/>
     <col min="2309" max="2309" width="14.875" style="1" customWidth="1"/>
-    <col min="2310" max="2310" width="15.25" style="1" customWidth="1"/>
+    <col min="2310" max="2310" width="15.125" style="1" customWidth="1"/>
     <col min="2311" max="2311" width="14.125" style="1" customWidth="1"/>
     <col min="2312" max="2312" width="8.125" style="1"/>
-    <col min="2313" max="2313" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2314" max="2558" width="8.125" style="1"/>
     <col min="2559" max="2559" width="6.875" style="1" customWidth="1"/>
-    <col min="2560" max="2560" width="2.75" style="1" customWidth="1"/>
+    <col min="2560" max="2560" width="2.625" style="1" customWidth="1"/>
     <col min="2561" max="2561" width="2.875" style="1" customWidth="1"/>
     <col min="2562" max="2562" width="15.375" style="1" customWidth="1"/>
     <col min="2563" max="2563" width="14.125" style="1" customWidth="1"/>
-    <col min="2564" max="2564" width="17.75" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="17.625" style="1" customWidth="1"/>
     <col min="2565" max="2565" width="14.875" style="1" customWidth="1"/>
-    <col min="2566" max="2566" width="15.25" style="1" customWidth="1"/>
+    <col min="2566" max="2566" width="15.125" style="1" customWidth="1"/>
     <col min="2567" max="2567" width="14.125" style="1" customWidth="1"/>
     <col min="2568" max="2568" width="8.125" style="1"/>
-    <col min="2569" max="2569" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2570" max="2814" width="8.125" style="1"/>
     <col min="2815" max="2815" width="6.875" style="1" customWidth="1"/>
-    <col min="2816" max="2816" width="2.75" style="1" customWidth="1"/>
+    <col min="2816" max="2816" width="2.625" style="1" customWidth="1"/>
     <col min="2817" max="2817" width="2.875" style="1" customWidth="1"/>
     <col min="2818" max="2818" width="15.375" style="1" customWidth="1"/>
     <col min="2819" max="2819" width="14.125" style="1" customWidth="1"/>
-    <col min="2820" max="2820" width="17.75" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="17.625" style="1" customWidth="1"/>
     <col min="2821" max="2821" width="14.875" style="1" customWidth="1"/>
-    <col min="2822" max="2822" width="15.25" style="1" customWidth="1"/>
+    <col min="2822" max="2822" width="15.125" style="1" customWidth="1"/>
     <col min="2823" max="2823" width="14.125" style="1" customWidth="1"/>
     <col min="2824" max="2824" width="8.125" style="1"/>
-    <col min="2825" max="2825" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2826" max="3070" width="8.125" style="1"/>
     <col min="3071" max="3071" width="6.875" style="1" customWidth="1"/>
-    <col min="3072" max="3072" width="2.75" style="1" customWidth="1"/>
+    <col min="3072" max="3072" width="2.625" style="1" customWidth="1"/>
     <col min="3073" max="3073" width="2.875" style="1" customWidth="1"/>
     <col min="3074" max="3074" width="15.375" style="1" customWidth="1"/>
     <col min="3075" max="3075" width="14.125" style="1" customWidth="1"/>
-    <col min="3076" max="3076" width="17.75" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="17.625" style="1" customWidth="1"/>
     <col min="3077" max="3077" width="14.875" style="1" customWidth="1"/>
-    <col min="3078" max="3078" width="15.25" style="1" customWidth="1"/>
+    <col min="3078" max="3078" width="15.125" style="1" customWidth="1"/>
     <col min="3079" max="3079" width="14.125" style="1" customWidth="1"/>
     <col min="3080" max="3080" width="8.125" style="1"/>
-    <col min="3081" max="3081" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3082" max="3326" width="8.125" style="1"/>
     <col min="3327" max="3327" width="6.875" style="1" customWidth="1"/>
-    <col min="3328" max="3328" width="2.75" style="1" customWidth="1"/>
+    <col min="3328" max="3328" width="2.625" style="1" customWidth="1"/>
     <col min="3329" max="3329" width="2.875" style="1" customWidth="1"/>
     <col min="3330" max="3330" width="15.375" style="1" customWidth="1"/>
     <col min="3331" max="3331" width="14.125" style="1" customWidth="1"/>
-    <col min="3332" max="3332" width="17.75" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="17.625" style="1" customWidth="1"/>
     <col min="3333" max="3333" width="14.875" style="1" customWidth="1"/>
-    <col min="3334" max="3334" width="15.25" style="1" customWidth="1"/>
+    <col min="3334" max="3334" width="15.125" style="1" customWidth="1"/>
     <col min="3335" max="3335" width="14.125" style="1" customWidth="1"/>
     <col min="3336" max="3336" width="8.125" style="1"/>
-    <col min="3337" max="3337" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3338" max="3582" width="8.125" style="1"/>
     <col min="3583" max="3583" width="6.875" style="1" customWidth="1"/>
-    <col min="3584" max="3584" width="2.75" style="1" customWidth="1"/>
+    <col min="3584" max="3584" width="2.625" style="1" customWidth="1"/>
     <col min="3585" max="3585" width="2.875" style="1" customWidth="1"/>
     <col min="3586" max="3586" width="15.375" style="1" customWidth="1"/>
     <col min="3587" max="3587" width="14.125" style="1" customWidth="1"/>
-    <col min="3588" max="3588" width="17.75" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="17.625" style="1" customWidth="1"/>
     <col min="3589" max="3589" width="14.875" style="1" customWidth="1"/>
-    <col min="3590" max="3590" width="15.25" style="1" customWidth="1"/>
+    <col min="3590" max="3590" width="15.125" style="1" customWidth="1"/>
     <col min="3591" max="3591" width="14.125" style="1" customWidth="1"/>
     <col min="3592" max="3592" width="8.125" style="1"/>
-    <col min="3593" max="3593" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3594" max="3838" width="8.125" style="1"/>
     <col min="3839" max="3839" width="6.875" style="1" customWidth="1"/>
-    <col min="3840" max="3840" width="2.75" style="1" customWidth="1"/>
+    <col min="3840" max="3840" width="2.625" style="1" customWidth="1"/>
     <col min="3841" max="3841" width="2.875" style="1" customWidth="1"/>
     <col min="3842" max="3842" width="15.375" style="1" customWidth="1"/>
     <col min="3843" max="3843" width="14.125" style="1" customWidth="1"/>
-    <col min="3844" max="3844" width="17.75" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="17.625" style="1" customWidth="1"/>
     <col min="3845" max="3845" width="14.875" style="1" customWidth="1"/>
-    <col min="3846" max="3846" width="15.25" style="1" customWidth="1"/>
+    <col min="3846" max="3846" width="15.125" style="1" customWidth="1"/>
     <col min="3847" max="3847" width="14.125" style="1" customWidth="1"/>
     <col min="3848" max="3848" width="8.125" style="1"/>
-    <col min="3849" max="3849" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3850" max="4094" width="8.125" style="1"/>
     <col min="4095" max="4095" width="6.875" style="1" customWidth="1"/>
-    <col min="4096" max="4096" width="2.75" style="1" customWidth="1"/>
+    <col min="4096" max="4096" width="2.625" style="1" customWidth="1"/>
     <col min="4097" max="4097" width="2.875" style="1" customWidth="1"/>
     <col min="4098" max="4098" width="15.375" style="1" customWidth="1"/>
     <col min="4099" max="4099" width="14.125" style="1" customWidth="1"/>
-    <col min="4100" max="4100" width="17.75" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="17.625" style="1" customWidth="1"/>
     <col min="4101" max="4101" width="14.875" style="1" customWidth="1"/>
-    <col min="4102" max="4102" width="15.25" style="1" customWidth="1"/>
+    <col min="4102" max="4102" width="15.125" style="1" customWidth="1"/>
     <col min="4103" max="4103" width="14.125" style="1" customWidth="1"/>
     <col min="4104" max="4104" width="8.125" style="1"/>
-    <col min="4105" max="4105" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4106" max="4350" width="8.125" style="1"/>
     <col min="4351" max="4351" width="6.875" style="1" customWidth="1"/>
-    <col min="4352" max="4352" width="2.75" style="1" customWidth="1"/>
+    <col min="4352" max="4352" width="2.625" style="1" customWidth="1"/>
     <col min="4353" max="4353" width="2.875" style="1" customWidth="1"/>
     <col min="4354" max="4354" width="15.375" style="1" customWidth="1"/>
     <col min="4355" max="4355" width="14.125" style="1" customWidth="1"/>
-    <col min="4356" max="4356" width="17.75" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="17.625" style="1" customWidth="1"/>
     <col min="4357" max="4357" width="14.875" style="1" customWidth="1"/>
-    <col min="4358" max="4358" width="15.25" style="1" customWidth="1"/>
+    <col min="4358" max="4358" width="15.125" style="1" customWidth="1"/>
     <col min="4359" max="4359" width="14.125" style="1" customWidth="1"/>
     <col min="4360" max="4360" width="8.125" style="1"/>
-    <col min="4361" max="4361" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4362" max="4606" width="8.125" style="1"/>
     <col min="4607" max="4607" width="6.875" style="1" customWidth="1"/>
-    <col min="4608" max="4608" width="2.75" style="1" customWidth="1"/>
+    <col min="4608" max="4608" width="2.625" style="1" customWidth="1"/>
     <col min="4609" max="4609" width="2.875" style="1" customWidth="1"/>
     <col min="4610" max="4610" width="15.375" style="1" customWidth="1"/>
     <col min="4611" max="4611" width="14.125" style="1" customWidth="1"/>
-    <col min="4612" max="4612" width="17.75" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="17.625" style="1" customWidth="1"/>
     <col min="4613" max="4613" width="14.875" style="1" customWidth="1"/>
-    <col min="4614" max="4614" width="15.25" style="1" customWidth="1"/>
+    <col min="4614" max="4614" width="15.125" style="1" customWidth="1"/>
     <col min="4615" max="4615" width="14.125" style="1" customWidth="1"/>
     <col min="4616" max="4616" width="8.125" style="1"/>
-    <col min="4617" max="4617" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4618" max="4862" width="8.125" style="1"/>
     <col min="4863" max="4863" width="6.875" style="1" customWidth="1"/>
-    <col min="4864" max="4864" width="2.75" style="1" customWidth="1"/>
+    <col min="4864" max="4864" width="2.625" style="1" customWidth="1"/>
     <col min="4865" max="4865" width="2.875" style="1" customWidth="1"/>
     <col min="4866" max="4866" width="15.375" style="1" customWidth="1"/>
     <col min="4867" max="4867" width="14.125" style="1" customWidth="1"/>
-    <col min="4868" max="4868" width="17.75" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="17.625" style="1" customWidth="1"/>
     <col min="4869" max="4869" width="14.875" style="1" customWidth="1"/>
-    <col min="4870" max="4870" width="15.25" style="1" customWidth="1"/>
+    <col min="4870" max="4870" width="15.125" style="1" customWidth="1"/>
     <col min="4871" max="4871" width="14.125" style="1" customWidth="1"/>
     <col min="4872" max="4872" width="8.125" style="1"/>
-    <col min="4873" max="4873" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4874" max="5118" width="8.125" style="1"/>
     <col min="5119" max="5119" width="6.875" style="1" customWidth="1"/>
-    <col min="5120" max="5120" width="2.75" style="1" customWidth="1"/>
+    <col min="5120" max="5120" width="2.625" style="1" customWidth="1"/>
     <col min="5121" max="5121" width="2.875" style="1" customWidth="1"/>
     <col min="5122" max="5122" width="15.375" style="1" customWidth="1"/>
     <col min="5123" max="5123" width="14.125" style="1" customWidth="1"/>
-    <col min="5124" max="5124" width="17.75" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="17.625" style="1" customWidth="1"/>
     <col min="5125" max="5125" width="14.875" style="1" customWidth="1"/>
-    <col min="5126" max="5126" width="15.25" style="1" customWidth="1"/>
+    <col min="5126" max="5126" width="15.125" style="1" customWidth="1"/>
     <col min="5127" max="5127" width="14.125" style="1" customWidth="1"/>
     <col min="5128" max="5128" width="8.125" style="1"/>
-    <col min="5129" max="5129" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5130" max="5374" width="8.125" style="1"/>
     <col min="5375" max="5375" width="6.875" style="1" customWidth="1"/>
-    <col min="5376" max="5376" width="2.75" style="1" customWidth="1"/>
+    <col min="5376" max="5376" width="2.625" style="1" customWidth="1"/>
     <col min="5377" max="5377" width="2.875" style="1" customWidth="1"/>
     <col min="5378" max="5378" width="15.375" style="1" customWidth="1"/>
     <col min="5379" max="5379" width="14.125" style="1" customWidth="1"/>
-    <col min="5380" max="5380" width="17.75" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="17.625" style="1" customWidth="1"/>
     <col min="5381" max="5381" width="14.875" style="1" customWidth="1"/>
-    <col min="5382" max="5382" width="15.25" style="1" customWidth="1"/>
+    <col min="5382" max="5382" width="15.125" style="1" customWidth="1"/>
     <col min="5383" max="5383" width="14.125" style="1" customWidth="1"/>
     <col min="5384" max="5384" width="8.125" style="1"/>
-    <col min="5385" max="5385" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5386" max="5630" width="8.125" style="1"/>
     <col min="5631" max="5631" width="6.875" style="1" customWidth="1"/>
-    <col min="5632" max="5632" width="2.75" style="1" customWidth="1"/>
+    <col min="5632" max="5632" width="2.625" style="1" customWidth="1"/>
     <col min="5633" max="5633" width="2.875" style="1" customWidth="1"/>
     <col min="5634" max="5634" width="15.375" style="1" customWidth="1"/>
     <col min="5635" max="5635" width="14.125" style="1" customWidth="1"/>
-    <col min="5636" max="5636" width="17.75" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="17.625" style="1" customWidth="1"/>
     <col min="5637" max="5637" width="14.875" style="1" customWidth="1"/>
-    <col min="5638" max="5638" width="15.25" style="1" customWidth="1"/>
+    <col min="5638" max="5638" width="15.125" style="1" customWidth="1"/>
     <col min="5639" max="5639" width="14.125" style="1" customWidth="1"/>
     <col min="5640" max="5640" width="8.125" style="1"/>
-    <col min="5641" max="5641" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5642" max="5886" width="8.125" style="1"/>
     <col min="5887" max="5887" width="6.875" style="1" customWidth="1"/>
-    <col min="5888" max="5888" width="2.75" style="1" customWidth="1"/>
+    <col min="5888" max="5888" width="2.625" style="1" customWidth="1"/>
     <col min="5889" max="5889" width="2.875" style="1" customWidth="1"/>
     <col min="5890" max="5890" width="15.375" style="1" customWidth="1"/>
     <col min="5891" max="5891" width="14.125" style="1" customWidth="1"/>
-    <col min="5892" max="5892" width="17.75" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="17.625" style="1" customWidth="1"/>
     <col min="5893" max="5893" width="14.875" style="1" customWidth="1"/>
-    <col min="5894" max="5894" width="15.25" style="1" customWidth="1"/>
+    <col min="5894" max="5894" width="15.125" style="1" customWidth="1"/>
     <col min="5895" max="5895" width="14.125" style="1" customWidth="1"/>
     <col min="5896" max="5896" width="8.125" style="1"/>
-    <col min="5897" max="5897" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5898" max="6142" width="8.125" style="1"/>
     <col min="6143" max="6143" width="6.875" style="1" customWidth="1"/>
-    <col min="6144" max="6144" width="2.75" style="1" customWidth="1"/>
+    <col min="6144" max="6144" width="2.625" style="1" customWidth="1"/>
     <col min="6145" max="6145" width="2.875" style="1" customWidth="1"/>
     <col min="6146" max="6146" width="15.375" style="1" customWidth="1"/>
     <col min="6147" max="6147" width="14.125" style="1" customWidth="1"/>
-    <col min="6148" max="6148" width="17.75" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="17.625" style="1" customWidth="1"/>
     <col min="6149" max="6149" width="14.875" style="1" customWidth="1"/>
-    <col min="6150" max="6150" width="15.25" style="1" customWidth="1"/>
+    <col min="6150" max="6150" width="15.125" style="1" customWidth="1"/>
     <col min="6151" max="6151" width="14.125" style="1" customWidth="1"/>
     <col min="6152" max="6152" width="8.125" style="1"/>
-    <col min="6153" max="6153" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6154" max="6398" width="8.125" style="1"/>
     <col min="6399" max="6399" width="6.875" style="1" customWidth="1"/>
-    <col min="6400" max="6400" width="2.75" style="1" customWidth="1"/>
+    <col min="6400" max="6400" width="2.625" style="1" customWidth="1"/>
     <col min="6401" max="6401" width="2.875" style="1" customWidth="1"/>
     <col min="6402" max="6402" width="15.375" style="1" customWidth="1"/>
     <col min="6403" max="6403" width="14.125" style="1" customWidth="1"/>
-    <col min="6404" max="6404" width="17.75" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="17.625" style="1" customWidth="1"/>
     <col min="6405" max="6405" width="14.875" style="1" customWidth="1"/>
-    <col min="6406" max="6406" width="15.25" style="1" customWidth="1"/>
+    <col min="6406" max="6406" width="15.125" style="1" customWidth="1"/>
     <col min="6407" max="6407" width="14.125" style="1" customWidth="1"/>
     <col min="6408" max="6408" width="8.125" style="1"/>
-    <col min="6409" max="6409" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6410" max="6654" width="8.125" style="1"/>
     <col min="6655" max="6655" width="6.875" style="1" customWidth="1"/>
-    <col min="6656" max="6656" width="2.75" style="1" customWidth="1"/>
+    <col min="6656" max="6656" width="2.625" style="1" customWidth="1"/>
     <col min="6657" max="6657" width="2.875" style="1" customWidth="1"/>
     <col min="6658" max="6658" width="15.375" style="1" customWidth="1"/>
     <col min="6659" max="6659" width="14.125" style="1" customWidth="1"/>
-    <col min="6660" max="6660" width="17.75" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="17.625" style="1" customWidth="1"/>
     <col min="6661" max="6661" width="14.875" style="1" customWidth="1"/>
-    <col min="6662" max="6662" width="15.25" style="1" customWidth="1"/>
+    <col min="6662" max="6662" width="15.125" style="1" customWidth="1"/>
     <col min="6663" max="6663" width="14.125" style="1" customWidth="1"/>
     <col min="6664" max="6664" width="8.125" style="1"/>
-    <col min="6665" max="6665" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6666" max="6910" width="8.125" style="1"/>
     <col min="6911" max="6911" width="6.875" style="1" customWidth="1"/>
-    <col min="6912" max="6912" width="2.75" style="1" customWidth="1"/>
+    <col min="6912" max="6912" width="2.625" style="1" customWidth="1"/>
     <col min="6913" max="6913" width="2.875" style="1" customWidth="1"/>
     <col min="6914" max="6914" width="15.375" style="1" customWidth="1"/>
     <col min="6915" max="6915" width="14.125" style="1" customWidth="1"/>
-    <col min="6916" max="6916" width="17.75" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="17.625" style="1" customWidth="1"/>
     <col min="6917" max="6917" width="14.875" style="1" customWidth="1"/>
-    <col min="6918" max="6918" width="15.25" style="1" customWidth="1"/>
+    <col min="6918" max="6918" width="15.125" style="1" customWidth="1"/>
     <col min="6919" max="6919" width="14.125" style="1" customWidth="1"/>
     <col min="6920" max="6920" width="8.125" style="1"/>
-    <col min="6921" max="6921" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6922" max="7166" width="8.125" style="1"/>
     <col min="7167" max="7167" width="6.875" style="1" customWidth="1"/>
-    <col min="7168" max="7168" width="2.75" style="1" customWidth="1"/>
+    <col min="7168" max="7168" width="2.625" style="1" customWidth="1"/>
     <col min="7169" max="7169" width="2.875" style="1" customWidth="1"/>
     <col min="7170" max="7170" width="15.375" style="1" customWidth="1"/>
     <col min="7171" max="7171" width="14.125" style="1" customWidth="1"/>
-    <col min="7172" max="7172" width="17.75" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="17.625" style="1" customWidth="1"/>
     <col min="7173" max="7173" width="14.875" style="1" customWidth="1"/>
-    <col min="7174" max="7174" width="15.25" style="1" customWidth="1"/>
+    <col min="7174" max="7174" width="15.125" style="1" customWidth="1"/>
     <col min="7175" max="7175" width="14.125" style="1" customWidth="1"/>
     <col min="7176" max="7176" width="8.125" style="1"/>
-    <col min="7177" max="7177" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7178" max="7422" width="8.125" style="1"/>
     <col min="7423" max="7423" width="6.875" style="1" customWidth="1"/>
-    <col min="7424" max="7424" width="2.75" style="1" customWidth="1"/>
+    <col min="7424" max="7424" width="2.625" style="1" customWidth="1"/>
     <col min="7425" max="7425" width="2.875" style="1" customWidth="1"/>
     <col min="7426" max="7426" width="15.375" style="1" customWidth="1"/>
     <col min="7427" max="7427" width="14.125" style="1" customWidth="1"/>
-    <col min="7428" max="7428" width="17.75" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="17.625" style="1" customWidth="1"/>
     <col min="7429" max="7429" width="14.875" style="1" customWidth="1"/>
-    <col min="7430" max="7430" width="15.25" style="1" customWidth="1"/>
+    <col min="7430" max="7430" width="15.125" style="1" customWidth="1"/>
     <col min="7431" max="7431" width="14.125" style="1" customWidth="1"/>
     <col min="7432" max="7432" width="8.125" style="1"/>
-    <col min="7433" max="7433" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7434" max="7678" width="8.125" style="1"/>
     <col min="7679" max="7679" width="6.875" style="1" customWidth="1"/>
-    <col min="7680" max="7680" width="2.75" style="1" customWidth="1"/>
+    <col min="7680" max="7680" width="2.625" style="1" customWidth="1"/>
     <col min="7681" max="7681" width="2.875" style="1" customWidth="1"/>
     <col min="7682" max="7682" width="15.375" style="1" customWidth="1"/>
     <col min="7683" max="7683" width="14.125" style="1" customWidth="1"/>
-    <col min="7684" max="7684" width="17.75" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="17.625" style="1" customWidth="1"/>
     <col min="7685" max="7685" width="14.875" style="1" customWidth="1"/>
-    <col min="7686" max="7686" width="15.25" style="1" customWidth="1"/>
+    <col min="7686" max="7686" width="15.125" style="1" customWidth="1"/>
     <col min="7687" max="7687" width="14.125" style="1" customWidth="1"/>
     <col min="7688" max="7688" width="8.125" style="1"/>
-    <col min="7689" max="7689" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7690" max="7934" width="8.125" style="1"/>
     <col min="7935" max="7935" width="6.875" style="1" customWidth="1"/>
-    <col min="7936" max="7936" width="2.75" style="1" customWidth="1"/>
+    <col min="7936" max="7936" width="2.625" style="1" customWidth="1"/>
     <col min="7937" max="7937" width="2.875" style="1" customWidth="1"/>
     <col min="7938" max="7938" width="15.375" style="1" customWidth="1"/>
     <col min="7939" max="7939" width="14.125" style="1" customWidth="1"/>
-    <col min="7940" max="7940" width="17.75" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="17.625" style="1" customWidth="1"/>
     <col min="7941" max="7941" width="14.875" style="1" customWidth="1"/>
-    <col min="7942" max="7942" width="15.25" style="1" customWidth="1"/>
+    <col min="7942" max="7942" width="15.125" style="1" customWidth="1"/>
     <col min="7943" max="7943" width="14.125" style="1" customWidth="1"/>
     <col min="7944" max="7944" width="8.125" style="1"/>
-    <col min="7945" max="7945" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7946" max="8190" width="8.125" style="1"/>
     <col min="8191" max="8191" width="6.875" style="1" customWidth="1"/>
-    <col min="8192" max="8192" width="2.75" style="1" customWidth="1"/>
+    <col min="8192" max="8192" width="2.625" style="1" customWidth="1"/>
     <col min="8193" max="8193" width="2.875" style="1" customWidth="1"/>
     <col min="8194" max="8194" width="15.375" style="1" customWidth="1"/>
     <col min="8195" max="8195" width="14.125" style="1" customWidth="1"/>
-    <col min="8196" max="8196" width="17.75" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="17.625" style="1" customWidth="1"/>
     <col min="8197" max="8197" width="14.875" style="1" customWidth="1"/>
-    <col min="8198" max="8198" width="15.25" style="1" customWidth="1"/>
+    <col min="8198" max="8198" width="15.125" style="1" customWidth="1"/>
     <col min="8199" max="8199" width="14.125" style="1" customWidth="1"/>
     <col min="8200" max="8200" width="8.125" style="1"/>
-    <col min="8201" max="8201" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="8202" max="8446" width="8.125" style="1"/>
     <col min="8447" max="8447" width="6.875" style="1" customWidth="1"/>
-    <col min="8448" max="8448" width="2.75" style="1" customWidth="1"/>
+    <col min="8448" max="8448" width="2.625" style="1" customWidth="1"/>
     <col min="8449" max="8449" width="2.875" style="1" customWidth="1"/>
     <col min="8450" max="8450" width="15.375" style="1" customWidth="1"/>
     <col min="8451" max="8451" width="14.125" style="1" customWidth="1"/>
-    <col min="8452" max="8452" width="17.75" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="17.625" style="1" customWidth="1"/>
     <col min="8453" max="8453" width="14.875" style="1" customWidth="1"/>
-    <col min="8454" max="8454" width="15.25" style="1" customWidth="1"/>
+    <col min="8454" max="8454" width="15.125" style="1" customWidth="1"/>
     <col min="8455" max="8455" width="14.125" style="1" customWidth="1"/>
     <col min="8456" max="8456" width="8.125" style="1"/>
-    <col min="8457" max="8457" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="8458" max="8702" width="8.125" style="1"/>
     <col min="8703" max="8703" width="6.875" style="1" customWidth="1"/>
-    <col min="8704" max="8704" width="2.75" style="1" customWidth="1"/>
+    <col min="8704" max="8704" width="2.625" style="1" customWidth="1"/>
     <col min="8705" max="8705" width="2.875" style="1" customWidth="1"/>
     <col min="8706" max="8706" width="15.375" style="1" customWidth="1"/>
     <col min="8707" max="8707" width="14.125" style="1" customWidth="1"/>
-    <col min="8708" max="8708" width="17.75" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="17.625" style="1" customWidth="1"/>
     <col min="8709" max="8709" width="14.875" style="1" customWidth="1"/>
-    <col min="8710" max="8710" width="15.25" style="1" customWidth="1"/>
+    <col min="8710" max="8710" width="15.125" style="1" customWidth="1"/>
     <col min="8711" max="8711" width="14.125" style="1" customWidth="1"/>
     <col min="8712" max="8712" width="8.125" style="1"/>
-    <col min="8713" max="8713" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="8714" max="8958" width="8.125" style="1"/>
     <col min="8959" max="8959" width="6.875" style="1" customWidth="1"/>
-    <col min="8960" max="8960" width="2.75" style="1" customWidth="1"/>
+    <col min="8960" max="8960" width="2.625" style="1" customWidth="1"/>
     <col min="8961" max="8961" width="2.875" style="1" customWidth="1"/>
     <col min="8962" max="8962" width="15.375" style="1" customWidth="1"/>
     <col min="8963" max="8963" width="14.125" style="1" customWidth="1"/>
-    <col min="8964" max="8964" width="17.75" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="17.625" style="1" customWidth="1"/>
     <col min="8965" max="8965" width="14.875" style="1" customWidth="1"/>
-    <col min="8966" max="8966" width="15.25" style="1" customWidth="1"/>
+    <col min="8966" max="8966" width="15.125" style="1" customWidth="1"/>
     <col min="8967" max="8967" width="14.125" style="1" customWidth="1"/>
     <col min="8968" max="8968" width="8.125" style="1"/>
-    <col min="8969" max="8969" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="8970" max="9214" width="8.125" style="1"/>
     <col min="9215" max="9215" width="6.875" style="1" customWidth="1"/>
-    <col min="9216" max="9216" width="2.75" style="1" customWidth="1"/>
+    <col min="9216" max="9216" width="2.625" style="1" customWidth="1"/>
     <col min="9217" max="9217" width="2.875" style="1" customWidth="1"/>
     <col min="9218" max="9218" width="15.375" style="1" customWidth="1"/>
     <col min="9219" max="9219" width="14.125" style="1" customWidth="1"/>
-    <col min="9220" max="9220" width="17.75" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="17.625" style="1" customWidth="1"/>
     <col min="9221" max="9221" width="14.875" style="1" customWidth="1"/>
-    <col min="9222" max="9222" width="15.25" style="1" customWidth="1"/>
+    <col min="9222" max="9222" width="15.125" style="1" customWidth="1"/>
     <col min="9223" max="9223" width="14.125" style="1" customWidth="1"/>
     <col min="9224" max="9224" width="8.125" style="1"/>
-    <col min="9225" max="9225" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="9226" max="9470" width="8.125" style="1"/>
     <col min="9471" max="9471" width="6.875" style="1" customWidth="1"/>
-    <col min="9472" max="9472" width="2.75" style="1" customWidth="1"/>
+    <col min="9472" max="9472" width="2.625" style="1" customWidth="1"/>
     <col min="9473" max="9473" width="2.875" style="1" customWidth="1"/>
     <col min="9474" max="9474" width="15.375" style="1" customWidth="1"/>
     <col min="9475" max="9475" width="14.125" style="1" customWidth="1"/>
-    <col min="9476" max="9476" width="17.75" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="17.625" style="1" customWidth="1"/>
     <col min="9477" max="9477" width="14.875" style="1" customWidth="1"/>
-    <col min="9478" max="9478" width="15.25" style="1" customWidth="1"/>
+    <col min="9478" max="9478" width="15.125" style="1" customWidth="1"/>
     <col min="9479" max="9479" width="14.125" style="1" customWidth="1"/>
     <col min="9480" max="9480" width="8.125" style="1"/>
-    <col min="9481" max="9481" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="9482" max="9726" width="8.125" style="1"/>
     <col min="9727" max="9727" width="6.875" style="1" customWidth="1"/>
-    <col min="9728" max="9728" width="2.75" style="1" customWidth="1"/>
+    <col min="9728" max="9728" width="2.625" style="1" customWidth="1"/>
     <col min="9729" max="9729" width="2.875" style="1" customWidth="1"/>
     <col min="9730" max="9730" width="15.375" style="1" customWidth="1"/>
     <col min="9731" max="9731" width="14.125" style="1" customWidth="1"/>
-    <col min="9732" max="9732" width="17.75" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="17.625" style="1" customWidth="1"/>
     <col min="9733" max="9733" width="14.875" style="1" customWidth="1"/>
-    <col min="9734" max="9734" width="15.25" style="1" customWidth="1"/>
+    <col min="9734" max="9734" width="15.125" style="1" customWidth="1"/>
     <col min="9735" max="9735" width="14.125" style="1" customWidth="1"/>
     <col min="9736" max="9736" width="8.125" style="1"/>
-    <col min="9737" max="9737" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="9738" max="9982" width="8.125" style="1"/>
     <col min="9983" max="9983" width="6.875" style="1" customWidth="1"/>
-    <col min="9984" max="9984" width="2.75" style="1" customWidth="1"/>
+    <col min="9984" max="9984" width="2.625" style="1" customWidth="1"/>
     <col min="9985" max="9985" width="2.875" style="1" customWidth="1"/>
     <col min="9986" max="9986" width="15.375" style="1" customWidth="1"/>
     <col min="9987" max="9987" width="14.125" style="1" customWidth="1"/>
-    <col min="9988" max="9988" width="17.75" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="17.625" style="1" customWidth="1"/>
     <col min="9989" max="9989" width="14.875" style="1" customWidth="1"/>
-    <col min="9990" max="9990" width="15.25" style="1" customWidth="1"/>
+    <col min="9990" max="9990" width="15.125" style="1" customWidth="1"/>
     <col min="9991" max="9991" width="14.125" style="1" customWidth="1"/>
     <col min="9992" max="9992" width="8.125" style="1"/>
-    <col min="9993" max="9993" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="9994" max="10238" width="8.125" style="1"/>
     <col min="10239" max="10239" width="6.875" style="1" customWidth="1"/>
-    <col min="10240" max="10240" width="2.75" style="1" customWidth="1"/>
+    <col min="10240" max="10240" width="2.625" style="1" customWidth="1"/>
     <col min="10241" max="10241" width="2.875" style="1" customWidth="1"/>
     <col min="10242" max="10242" width="15.375" style="1" customWidth="1"/>
     <col min="10243" max="10243" width="14.125" style="1" customWidth="1"/>
-    <col min="10244" max="10244" width="17.75" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="17.625" style="1" customWidth="1"/>
     <col min="10245" max="10245" width="14.875" style="1" customWidth="1"/>
-    <col min="10246" max="10246" width="15.25" style="1" customWidth="1"/>
+    <col min="10246" max="10246" width="15.125" style="1" customWidth="1"/>
     <col min="10247" max="10247" width="14.125" style="1" customWidth="1"/>
     <col min="10248" max="10248" width="8.125" style="1"/>
-    <col min="10249" max="10249" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="10250" max="10494" width="8.125" style="1"/>
     <col min="10495" max="10495" width="6.875" style="1" customWidth="1"/>
-    <col min="10496" max="10496" width="2.75" style="1" customWidth="1"/>
+    <col min="10496" max="10496" width="2.625" style="1" customWidth="1"/>
     <col min="10497" max="10497" width="2.875" style="1" customWidth="1"/>
     <col min="10498" max="10498" width="15.375" style="1" customWidth="1"/>
     <col min="10499" max="10499" width="14.125" style="1" customWidth="1"/>
-    <col min="10500" max="10500" width="17.75" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="17.625" style="1" customWidth="1"/>
     <col min="10501" max="10501" width="14.875" style="1" customWidth="1"/>
-    <col min="10502" max="10502" width="15.25" style="1" customWidth="1"/>
+    <col min="10502" max="10502" width="15.125" style="1" customWidth="1"/>
     <col min="10503" max="10503" width="14.125" style="1" customWidth="1"/>
     <col min="10504" max="10504" width="8.125" style="1"/>
-    <col min="10505" max="10505" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="10506" max="10750" width="8.125" style="1"/>
     <col min="10751" max="10751" width="6.875" style="1" customWidth="1"/>
-    <col min="10752" max="10752" width="2.75" style="1" customWidth="1"/>
+    <col min="10752" max="10752" width="2.625" style="1" customWidth="1"/>
     <col min="10753" max="10753" width="2.875" style="1" customWidth="1"/>
     <col min="10754" max="10754" width="15.375" style="1" customWidth="1"/>
     <col min="10755" max="10755" width="14.125" style="1" customWidth="1"/>
-    <col min="10756" max="10756" width="17.75" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="17.625" style="1" customWidth="1"/>
     <col min="10757" max="10757" width="14.875" style="1" customWidth="1"/>
-    <col min="10758" max="10758" width="15.25" style="1" customWidth="1"/>
+    <col min="10758" max="10758" width="15.125" style="1" customWidth="1"/>
     <col min="10759" max="10759" width="14.125" style="1" customWidth="1"/>
     <col min="10760" max="10760" width="8.125" style="1"/>
-    <col min="10761" max="10761" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="10762" max="11006" width="8.125" style="1"/>
     <col min="11007" max="11007" width="6.875" style="1" customWidth="1"/>
-    <col min="11008" max="11008" width="2.75" style="1" customWidth="1"/>
+    <col min="11008" max="11008" width="2.625" style="1" customWidth="1"/>
     <col min="11009" max="11009" width="2.875" style="1" customWidth="1"/>
     <col min="11010" max="11010" width="15.375" style="1" customWidth="1"/>
     <col min="11011" max="11011" width="14.125" style="1" customWidth="1"/>
-    <col min="11012" max="11012" width="17.75" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="17.625" style="1" customWidth="1"/>
     <col min="11013" max="11013" width="14.875" style="1" customWidth="1"/>
-    <col min="11014" max="11014" width="15.25" style="1" customWidth="1"/>
+    <col min="11014" max="11014" width="15.125" style="1" customWidth="1"/>
     <col min="11015" max="11015" width="14.125" style="1" customWidth="1"/>
     <col min="11016" max="11016" width="8.125" style="1"/>
-    <col min="11017" max="11017" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="11018" max="11262" width="8.125" style="1"/>
     <col min="11263" max="11263" width="6.875" style="1" customWidth="1"/>
-    <col min="11264" max="11264" width="2.75" style="1" customWidth="1"/>
+    <col min="11264" max="11264" width="2.625" style="1" customWidth="1"/>
     <col min="11265" max="11265" width="2.875" style="1" customWidth="1"/>
     <col min="11266" max="11266" width="15.375" style="1" customWidth="1"/>
     <col min="11267" max="11267" width="14.125" style="1" customWidth="1"/>
-    <col min="11268" max="11268" width="17.75" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="17.625" style="1" customWidth="1"/>
     <col min="11269" max="11269" width="14.875" style="1" customWidth="1"/>
-    <col min="11270" max="11270" width="15.25" style="1" customWidth="1"/>
+    <col min="11270" max="11270" width="15.125" style="1" customWidth="1"/>
     <col min="11271" max="11271" width="14.125" style="1" customWidth="1"/>
     <col min="11272" max="11272" width="8.125" style="1"/>
-    <col min="11273" max="11273" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="11274" max="11518" width="8.125" style="1"/>
     <col min="11519" max="11519" width="6.875" style="1" customWidth="1"/>
-    <col min="11520" max="11520" width="2.75" style="1" customWidth="1"/>
+    <col min="11520" max="11520" width="2.625" style="1" customWidth="1"/>
     <col min="11521" max="11521" width="2.875" style="1" customWidth="1"/>
     <col min="11522" max="11522" width="15.375" style="1" customWidth="1"/>
     <col min="11523" max="11523" width="14.125" style="1" customWidth="1"/>
-    <col min="11524" max="11524" width="17.75" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="17.625" style="1" customWidth="1"/>
     <col min="11525" max="11525" width="14.875" style="1" customWidth="1"/>
-    <col min="11526" max="11526" width="15.25" style="1" customWidth="1"/>
+    <col min="11526" max="11526" width="15.125" style="1" customWidth="1"/>
     <col min="11527" max="11527" width="14.125" style="1" customWidth="1"/>
     <col min="11528" max="11528" width="8.125" style="1"/>
-    <col min="11529" max="11529" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="11530" max="11774" width="8.125" style="1"/>
     <col min="11775" max="11775" width="6.875" style="1" customWidth="1"/>
-    <col min="11776" max="11776" width="2.75" style="1" customWidth="1"/>
+    <col min="11776" max="11776" width="2.625" style="1" customWidth="1"/>
     <col min="11777" max="11777" width="2.875" style="1" customWidth="1"/>
     <col min="11778" max="11778" width="15.375" style="1" customWidth="1"/>
     <col min="11779" max="11779" width="14.125" style="1" customWidth="1"/>
-    <col min="11780" max="11780" width="17.75" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="17.625" style="1" customWidth="1"/>
     <col min="11781" max="11781" width="14.875" style="1" customWidth="1"/>
-    <col min="11782" max="11782" width="15.25" style="1" customWidth="1"/>
+    <col min="11782" max="11782" width="15.125" style="1" customWidth="1"/>
     <col min="11783" max="11783" width="14.125" style="1" customWidth="1"/>
     <col min="11784" max="11784" width="8.125" style="1"/>
-    <col min="11785" max="11785" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="11786" max="12030" width="8.125" style="1"/>
     <col min="12031" max="12031" width="6.875" style="1" customWidth="1"/>
-    <col min="12032" max="12032" width="2.75" style="1" customWidth="1"/>
+    <col min="12032" max="12032" width="2.625" style="1" customWidth="1"/>
     <col min="12033" max="12033" width="2.875" style="1" customWidth="1"/>
     <col min="12034" max="12034" width="15.375" style="1" customWidth="1"/>
     <col min="12035" max="12035" width="14.125" style="1" customWidth="1"/>
-    <col min="12036" max="12036" width="17.75" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="17.625" style="1" customWidth="1"/>
     <col min="12037" max="12037" width="14.875" style="1" customWidth="1"/>
-    <col min="12038" max="12038" width="15.25" style="1" customWidth="1"/>
+    <col min="12038" max="12038" width="15.125" style="1" customWidth="1"/>
     <col min="12039" max="12039" width="14.125" style="1" customWidth="1"/>
     <col min="12040" max="12040" width="8.125" style="1"/>
-    <col min="12041" max="12041" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="12042" max="12286" width="8.125" style="1"/>
     <col min="12287" max="12287" width="6.875" style="1" customWidth="1"/>
-    <col min="12288" max="12288" width="2.75" style="1" customWidth="1"/>
+    <col min="12288" max="12288" width="2.625" style="1" customWidth="1"/>
     <col min="12289" max="12289" width="2.875" style="1" customWidth="1"/>
     <col min="12290" max="12290" width="15.375" style="1" customWidth="1"/>
     <col min="12291" max="12291" width="14.125" style="1" customWidth="1"/>
-    <col min="12292" max="12292" width="17.75" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="17.625" style="1" customWidth="1"/>
     <col min="12293" max="12293" width="14.875" style="1" customWidth="1"/>
-    <col min="12294" max="12294" width="15.25" style="1" customWidth="1"/>
+    <col min="12294" max="12294" width="15.125" style="1" customWidth="1"/>
     <col min="12295" max="12295" width="14.125" style="1" customWidth="1"/>
     <col min="12296" max="12296" width="8.125" style="1"/>
-    <col min="12297" max="12297" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="12298" max="12542" width="8.125" style="1"/>
     <col min="12543" max="12543" width="6.875" style="1" customWidth="1"/>
-    <col min="12544" max="12544" width="2.75" style="1" customWidth="1"/>
+    <col min="12544" max="12544" width="2.625" style="1" customWidth="1"/>
     <col min="12545" max="12545" width="2.875" style="1" customWidth="1"/>
     <col min="12546" max="12546" width="15.375" style="1" customWidth="1"/>
     <col min="12547" max="12547" width="14.125" style="1" customWidth="1"/>
-    <col min="12548" max="12548" width="17.75" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="17.625" style="1" customWidth="1"/>
     <col min="12549" max="12549" width="14.875" style="1" customWidth="1"/>
-    <col min="12550" max="12550" width="15.25" style="1" customWidth="1"/>
+    <col min="12550" max="12550" width="15.125" style="1" customWidth="1"/>
     <col min="12551" max="12551" width="14.125" style="1" customWidth="1"/>
     <col min="12552" max="12552" width="8.125" style="1"/>
-    <col min="12553" max="12553" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="12554" max="12798" width="8.125" style="1"/>
     <col min="12799" max="12799" width="6.875" style="1" customWidth="1"/>
-    <col min="12800" max="12800" width="2.75" style="1" customWidth="1"/>
+    <col min="12800" max="12800" width="2.625" style="1" customWidth="1"/>
     <col min="12801" max="12801" width="2.875" style="1" customWidth="1"/>
     <col min="12802" max="12802" width="15.375" style="1" customWidth="1"/>
     <col min="12803" max="12803" width="14.125" style="1" customWidth="1"/>
-    <col min="12804" max="12804" width="17.75" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="17.625" style="1" customWidth="1"/>
     <col min="12805" max="12805" width="14.875" style="1" customWidth="1"/>
-    <col min="12806" max="12806" width="15.25" style="1" customWidth="1"/>
+    <col min="12806" max="12806" width="15.125" style="1" customWidth="1"/>
     <col min="12807" max="12807" width="14.125" style="1" customWidth="1"/>
     <col min="12808" max="12808" width="8.125" style="1"/>
-    <col min="12809" max="12809" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="12810" max="13054" width="8.125" style="1"/>
     <col min="13055" max="13055" width="6.875" style="1" customWidth="1"/>
-    <col min="13056" max="13056" width="2.75" style="1" customWidth="1"/>
+    <col min="13056" max="13056" width="2.625" style="1" customWidth="1"/>
     <col min="13057" max="13057" width="2.875" style="1" customWidth="1"/>
     <col min="13058" max="13058" width="15.375" style="1" customWidth="1"/>
     <col min="13059" max="13059" width="14.125" style="1" customWidth="1"/>
-    <col min="13060" max="13060" width="17.75" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="17.625" style="1" customWidth="1"/>
     <col min="13061" max="13061" width="14.875" style="1" customWidth="1"/>
-    <col min="13062" max="13062" width="15.25" style="1" customWidth="1"/>
+    <col min="13062" max="13062" width="15.125" style="1" customWidth="1"/>
     <col min="13063" max="13063" width="14.125" style="1" customWidth="1"/>
     <col min="13064" max="13064" width="8.125" style="1"/>
-    <col min="13065" max="13065" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="13066" max="13310" width="8.125" style="1"/>
     <col min="13311" max="13311" width="6.875" style="1" customWidth="1"/>
-    <col min="13312" max="13312" width="2.75" style="1" customWidth="1"/>
+    <col min="13312" max="13312" width="2.625" style="1" customWidth="1"/>
     <col min="13313" max="13313" width="2.875" style="1" customWidth="1"/>
     <col min="13314" max="13314" width="15.375" style="1" customWidth="1"/>
     <col min="13315" max="13315" width="14.125" style="1" customWidth="1"/>
-    <col min="13316" max="13316" width="17.75" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="17.625" style="1" customWidth="1"/>
     <col min="13317" max="13317" width="14.875" style="1" customWidth="1"/>
-    <col min="13318" max="13318" width="15.25" style="1" customWidth="1"/>
+    <col min="13318" max="13318" width="15.125" style="1" customWidth="1"/>
     <col min="13319" max="13319" width="14.125" style="1" customWidth="1"/>
     <col min="13320" max="13320" width="8.125" style="1"/>
-    <col min="13321" max="13321" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="13322" max="13566" width="8.125" style="1"/>
     <col min="13567" max="13567" width="6.875" style="1" customWidth="1"/>
-    <col min="13568" max="13568" width="2.75" style="1" customWidth="1"/>
+    <col min="13568" max="13568" width="2.625" style="1" customWidth="1"/>
     <col min="13569" max="13569" width="2.875" style="1" customWidth="1"/>
     <col min="13570" max="13570" width="15.375" style="1" customWidth="1"/>
     <col min="13571" max="13571" width="14.125" style="1" customWidth="1"/>
-    <col min="13572" max="13572" width="17.75" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="17.625" style="1" customWidth="1"/>
     <col min="13573" max="13573" width="14.875" style="1" customWidth="1"/>
-    <col min="13574" max="13574" width="15.25" style="1" customWidth="1"/>
+    <col min="13574" max="13574" width="15.125" style="1" customWidth="1"/>
     <col min="13575" max="13575" width="14.125" style="1" customWidth="1"/>
     <col min="13576" max="13576" width="8.125" style="1"/>
-    <col min="13577" max="13577" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="13578" max="13822" width="8.125" style="1"/>
     <col min="13823" max="13823" width="6.875" style="1" customWidth="1"/>
-    <col min="13824" max="13824" width="2.75" style="1" customWidth="1"/>
+    <col min="13824" max="13824" width="2.625" style="1" customWidth="1"/>
     <col min="13825" max="13825" width="2.875" style="1" customWidth="1"/>
     <col min="13826" max="13826" width="15.375" style="1" customWidth="1"/>
     <col min="13827" max="13827" width="14.125" style="1" customWidth="1"/>
-    <col min="13828" max="13828" width="17.75" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="17.625" style="1" customWidth="1"/>
     <col min="13829" max="13829" width="14.875" style="1" customWidth="1"/>
-    <col min="13830" max="13830" width="15.25" style="1" customWidth="1"/>
+    <col min="13830" max="13830" width="15.125" style="1" customWidth="1"/>
     <col min="13831" max="13831" width="14.125" style="1" customWidth="1"/>
     <col min="13832" max="13832" width="8.125" style="1"/>
-    <col min="13833" max="13833" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="13834" max="14078" width="8.125" style="1"/>
     <col min="14079" max="14079" width="6.875" style="1" customWidth="1"/>
-    <col min="14080" max="14080" width="2.75" style="1" customWidth="1"/>
+    <col min="14080" max="14080" width="2.625" style="1" customWidth="1"/>
     <col min="14081" max="14081" width="2.875" style="1" customWidth="1"/>
     <col min="14082" max="14082" width="15.375" style="1" customWidth="1"/>
     <col min="14083" max="14083" width="14.125" style="1" customWidth="1"/>
-    <col min="14084" max="14084" width="17.75" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="17.625" style="1" customWidth="1"/>
     <col min="14085" max="14085" width="14.875" style="1" customWidth="1"/>
-    <col min="14086" max="14086" width="15.25" style="1" customWidth="1"/>
+    <col min="14086" max="14086" width="15.125" style="1" customWidth="1"/>
     <col min="14087" max="14087" width="14.125" style="1" customWidth="1"/>
     <col min="14088" max="14088" width="8.125" style="1"/>
-    <col min="14089" max="14089" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="14090" max="14334" width="8.125" style="1"/>
     <col min="14335" max="14335" width="6.875" style="1" customWidth="1"/>
-    <col min="14336" max="14336" width="2.75" style="1" customWidth="1"/>
+    <col min="14336" max="14336" width="2.625" style="1" customWidth="1"/>
     <col min="14337" max="14337" width="2.875" style="1" customWidth="1"/>
     <col min="14338" max="14338" width="15.375" style="1" customWidth="1"/>
     <col min="14339" max="14339" width="14.125" style="1" customWidth="1"/>
-    <col min="14340" max="14340" width="17.75" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="17.625" style="1" customWidth="1"/>
     <col min="14341" max="14341" width="14.875" style="1" customWidth="1"/>
-    <col min="14342" max="14342" width="15.25" style="1" customWidth="1"/>
+    <col min="14342" max="14342" width="15.125" style="1" customWidth="1"/>
     <col min="14343" max="14343" width="14.125" style="1" customWidth="1"/>
     <col min="14344" max="14344" width="8.125" style="1"/>
-    <col min="14345" max="14345" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="14346" max="14590" width="8.125" style="1"/>
     <col min="14591" max="14591" width="6.875" style="1" customWidth="1"/>
-    <col min="14592" max="14592" width="2.75" style="1" customWidth="1"/>
+    <col min="14592" max="14592" width="2.625" style="1" customWidth="1"/>
     <col min="14593" max="14593" width="2.875" style="1" customWidth="1"/>
     <col min="14594" max="14594" width="15.375" style="1" customWidth="1"/>
     <col min="14595" max="14595" width="14.125" style="1" customWidth="1"/>
-    <col min="14596" max="14596" width="17.75" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="17.625" style="1" customWidth="1"/>
     <col min="14597" max="14597" width="14.875" style="1" customWidth="1"/>
-    <col min="14598" max="14598" width="15.25" style="1" customWidth="1"/>
+    <col min="14598" max="14598" width="15.125" style="1" customWidth="1"/>
     <col min="14599" max="14599" width="14.125" style="1" customWidth="1"/>
     <col min="14600" max="14600" width="8.125" style="1"/>
-    <col min="14601" max="14601" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="14602" max="14846" width="8.125" style="1"/>
     <col min="14847" max="14847" width="6.875" style="1" customWidth="1"/>
-    <col min="14848" max="14848" width="2.75" style="1" customWidth="1"/>
+    <col min="14848" max="14848" width="2.625" style="1" customWidth="1"/>
     <col min="14849" max="14849" width="2.875" style="1" customWidth="1"/>
     <col min="14850" max="14850" width="15.375" style="1" customWidth="1"/>
     <col min="14851" max="14851" width="14.125" style="1" customWidth="1"/>
-    <col min="14852" max="14852" width="17.75" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="17.625" style="1" customWidth="1"/>
     <col min="14853" max="14853" width="14.875" style="1" customWidth="1"/>
-    <col min="14854" max="14854" width="15.25" style="1" customWidth="1"/>
+    <col min="14854" max="14854" width="15.125" style="1" customWidth="1"/>
     <col min="14855" max="14855" width="14.125" style="1" customWidth="1"/>
     <col min="14856" max="14856" width="8.125" style="1"/>
-    <col min="14857" max="14857" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="14858" max="15102" width="8.125" style="1"/>
     <col min="15103" max="15103" width="6.875" style="1" customWidth="1"/>
-    <col min="15104" max="15104" width="2.75" style="1" customWidth="1"/>
+    <col min="15104" max="15104" width="2.625" style="1" customWidth="1"/>
     <col min="15105" max="15105" width="2.875" style="1" customWidth="1"/>
     <col min="15106" max="15106" width="15.375" style="1" customWidth="1"/>
     <col min="15107" max="15107" width="14.125" style="1" customWidth="1"/>
-    <col min="15108" max="15108" width="17.75" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="17.625" style="1" customWidth="1"/>
     <col min="15109" max="15109" width="14.875" style="1" customWidth="1"/>
-    <col min="15110" max="15110" width="15.25" style="1" customWidth="1"/>
+    <col min="15110" max="15110" width="15.125" style="1" customWidth="1"/>
     <col min="15111" max="15111" width="14.125" style="1" customWidth="1"/>
     <col min="15112" max="15112" width="8.125" style="1"/>
-    <col min="15113" max="15113" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="15114" max="15358" width="8.125" style="1"/>
     <col min="15359" max="15359" width="6.875" style="1" customWidth="1"/>
-    <col min="15360" max="15360" width="2.75" style="1" customWidth="1"/>
+    <col min="15360" max="15360" width="2.625" style="1" customWidth="1"/>
     <col min="15361" max="15361" width="2.875" style="1" customWidth="1"/>
     <col min="15362" max="15362" width="15.375" style="1" customWidth="1"/>
     <col min="15363" max="15363" width="14.125" style="1" customWidth="1"/>
-    <col min="15364" max="15364" width="17.75" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="17.625" style="1" customWidth="1"/>
     <col min="15365" max="15365" width="14.875" style="1" customWidth="1"/>
-    <col min="15366" max="15366" width="15.25" style="1" customWidth="1"/>
+    <col min="15366" max="15366" width="15.125" style="1" customWidth="1"/>
     <col min="15367" max="15367" width="14.125" style="1" customWidth="1"/>
     <col min="15368" max="15368" width="8.125" style="1"/>
-    <col min="15369" max="15369" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="15370" max="15614" width="8.125" style="1"/>
     <col min="15615" max="15615" width="6.875" style="1" customWidth="1"/>
-    <col min="15616" max="15616" width="2.75" style="1" customWidth="1"/>
+    <col min="15616" max="15616" width="2.625" style="1" customWidth="1"/>
     <col min="15617" max="15617" width="2.875" style="1" customWidth="1"/>
     <col min="15618" max="15618" width="15.375" style="1" customWidth="1"/>
     <col min="15619" max="15619" width="14.125" style="1" customWidth="1"/>
-    <col min="15620" max="15620" width="17.75" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="17.625" style="1" customWidth="1"/>
     <col min="15621" max="15621" width="14.875" style="1" customWidth="1"/>
-    <col min="15622" max="15622" width="15.25" style="1" customWidth="1"/>
+    <col min="15622" max="15622" width="15.125" style="1" customWidth="1"/>
     <col min="15623" max="15623" width="14.125" style="1" customWidth="1"/>
     <col min="15624" max="15624" width="8.125" style="1"/>
-    <col min="15625" max="15625" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="15626" max="15870" width="8.125" style="1"/>
     <col min="15871" max="15871" width="6.875" style="1" customWidth="1"/>
-    <col min="15872" max="15872" width="2.75" style="1" customWidth="1"/>
+    <col min="15872" max="15872" width="2.625" style="1" customWidth="1"/>
     <col min="15873" max="15873" width="2.875" style="1" customWidth="1"/>
     <col min="15874" max="15874" width="15.375" style="1" customWidth="1"/>
     <col min="15875" max="15875" width="14.125" style="1" customWidth="1"/>
-    <col min="15876" max="15876" width="17.75" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="17.625" style="1" customWidth="1"/>
     <col min="15877" max="15877" width="14.875" style="1" customWidth="1"/>
-    <col min="15878" max="15878" width="15.25" style="1" customWidth="1"/>
+    <col min="15878" max="15878" width="15.125" style="1" customWidth="1"/>
     <col min="15879" max="15879" width="14.125" style="1" customWidth="1"/>
     <col min="15880" max="15880" width="8.125" style="1"/>
-    <col min="15881" max="15881" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="15882" max="16126" width="8.125" style="1"/>
     <col min="16127" max="16127" width="6.875" style="1" customWidth="1"/>
-    <col min="16128" max="16128" width="2.75" style="1" customWidth="1"/>
+    <col min="16128" max="16128" width="2.625" style="1" customWidth="1"/>
     <col min="16129" max="16129" width="2.875" style="1" customWidth="1"/>
     <col min="16130" max="16130" width="15.375" style="1" customWidth="1"/>
     <col min="16131" max="16131" width="14.125" style="1" customWidth="1"/>
-    <col min="16132" max="16132" width="17.75" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="17.625" style="1" customWidth="1"/>
     <col min="16133" max="16133" width="14.875" style="1" customWidth="1"/>
-    <col min="16134" max="16134" width="15.25" style="1" customWidth="1"/>
+    <col min="16134" max="16134" width="15.125" style="1" customWidth="1"/>
     <col min="16135" max="16135" width="14.125" style="1" customWidth="1"/>
     <col min="16136" max="16136" width="8.125" style="1"/>
-    <col min="16137" max="16137" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="16138" max="16384" width="8.125" style="1"/>
   </cols>
   <sheetData>
@@ -10387,24 +10508,58 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.51181102362204722" bottom="0.51181102362204722" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
-    <oleObject progId="Document" shapeId="1025" r:id="rId4"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Document" shapeId="1025" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>150</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
+                <xdr:row>159</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Document" shapeId="1025" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>